--- a/data-raw/Estatistica_Extratos_Alan_v1.xlsx
+++ b/data-raw/Estatistica_Extratos_Alan_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\mestrado-marcelo-bernardi\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15E90CE5-5261-415E-8A1E-5AE3BC117D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2C97B2-C6FF-4909-B164-F6F3E9ED8080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
   <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G27" sqref="G27:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -706,14 +706,14 @@
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2">
         <v>12.1</v>
@@ -737,14 +737,14 @@
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2">
         <v>10.1</v>
@@ -768,14 +768,14 @@
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2">
         <v>10</v>
@@ -799,14 +799,14 @@
         <v>4</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2">
         <v>12.4</v>
@@ -830,14 +830,14 @@
         <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2">
         <v>12.4</v>
@@ -1016,14 +1016,14 @@
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2">
         <v>15.4</v>
@@ -1047,14 +1047,14 @@
         <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2">
         <v>11.3</v>
@@ -1078,14 +1078,14 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2">
         <v>9.6999999999999993</v>
@@ -1109,14 +1109,14 @@
         <v>4</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2">
         <v>11.2</v>
@@ -1140,14 +1140,14 @@
         <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ref="F26:F89" si="2">AVERAGE(D26:E26)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2">
         <v>11.3</v>
@@ -1171,24 +1171,24 @@
         <v>1</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1202,24 +1202,24 @@
         <v>2</v>
       </c>
       <c r="D28" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1233,24 +1233,24 @@
         <v>3</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1264,24 +1264,24 @@
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1295,24 +1295,24 @@
         <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1636,24 +1636,24 @@
         <v>1</v>
       </c>
       <c r="D42" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1667,24 +1667,24 @@
         <v>2</v>
       </c>
       <c r="D43" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1698,24 +1698,24 @@
         <v>3</v>
       </c>
       <c r="D44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1729,24 +1729,24 @@
         <v>4</v>
       </c>
       <c r="D45" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E45" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1760,24 +1760,24 @@
         <v>5</v>
       </c>
       <c r="D46" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E46" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G46" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1946,14 +1946,14 @@
         <v>1</v>
       </c>
       <c r="D52" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E52" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G52" s="2">
         <v>16.7</v>
@@ -1977,14 +1977,14 @@
         <v>2</v>
       </c>
       <c r="D53" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E53" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G53" s="2">
         <v>13.9</v>
@@ -2008,14 +2008,14 @@
         <v>3</v>
       </c>
       <c r="D54" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E54" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G54" s="2">
         <v>15.8</v>
@@ -2039,14 +2039,14 @@
         <v>4</v>
       </c>
       <c r="D55" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E55" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G55" s="2">
         <v>17</v>
@@ -2070,14 +2070,14 @@
         <v>5</v>
       </c>
       <c r="D56" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E56" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G56" s="2">
         <v>15.7</v>
@@ -2101,24 +2101,24 @@
         <v>1</v>
       </c>
       <c r="D57" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E57" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H57" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2132,24 +2132,24 @@
         <v>2</v>
       </c>
       <c r="D58" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E58" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G58" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H58" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2163,24 +2163,24 @@
         <v>3</v>
       </c>
       <c r="D59" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E59" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G59" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2194,24 +2194,24 @@
         <v>4</v>
       </c>
       <c r="D60" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E60" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G60" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H60" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2225,24 +2225,24 @@
         <v>5</v>
       </c>
       <c r="D61" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E61" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -2628,14 +2628,13 @@
         <v>3</v>
       </c>
       <c r="D74" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E74" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G74" s="2">
         <v>26.8</v>
@@ -2659,14 +2658,13 @@
         <v>4</v>
       </c>
       <c r="D75" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E75" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G75" s="2">
         <v>30.9</v>
@@ -3031,14 +3029,14 @@
         <v>1</v>
       </c>
       <c r="D87" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E87" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G87" s="2">
         <v>11.8</v>
@@ -3062,14 +3060,14 @@
         <v>2</v>
       </c>
       <c r="D88" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E88" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G88" s="2">
         <v>13.4</v>
@@ -3093,14 +3091,14 @@
         <v>3</v>
       </c>
       <c r="D89" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E89" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G89" s="2">
         <v>14.1</v>
@@ -3124,14 +3122,14 @@
         <v>4</v>
       </c>
       <c r="D90" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E90" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" ref="F90:F138" si="4">AVERAGE(D90:E90)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G90" s="2">
         <v>14.8</v>
@@ -3155,14 +3153,14 @@
         <v>5</v>
       </c>
       <c r="D91" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E91" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G91" s="2">
         <v>14.1</v>
@@ -3341,14 +3339,14 @@
         <v>1</v>
       </c>
       <c r="D97" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E97" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G97" s="2">
         <v>18.8</v>
@@ -3372,14 +3370,14 @@
         <v>2</v>
       </c>
       <c r="D98" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E98" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G98" s="2">
         <v>17.3</v>
@@ -3403,14 +3401,14 @@
         <v>3</v>
       </c>
       <c r="D99" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E99" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G99" s="2">
         <v>17.2</v>
@@ -3434,14 +3432,14 @@
         <v>4</v>
       </c>
       <c r="D100" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E100" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G100" s="2">
         <v>16</v>
@@ -3465,14 +3463,14 @@
         <v>5</v>
       </c>
       <c r="D101" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E101" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G101" s="2">
         <v>16.3</v>
@@ -3496,24 +3494,24 @@
         <v>1</v>
       </c>
       <c r="D102" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E102" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G102" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H102" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I102" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -3527,24 +3525,24 @@
         <v>2</v>
       </c>
       <c r="D103" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E103" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G103" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H103" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I103" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -3558,24 +3556,24 @@
         <v>3</v>
       </c>
       <c r="D104" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E104" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G104" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H104" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I104" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -3589,24 +3587,24 @@
         <v>4</v>
       </c>
       <c r="D105" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E105" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G105" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H105" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I105" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -3620,24 +3618,24 @@
         <v>5</v>
       </c>
       <c r="D106" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E106" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G106" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H106" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I106" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -3961,14 +3959,14 @@
         <v>1</v>
       </c>
       <c r="D117" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E117" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G117" s="2">
         <v>18.600000000000001</v>
@@ -3992,14 +3990,14 @@
         <v>2</v>
       </c>
       <c r="D118" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E118" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G118" s="2">
         <v>18.399999999999999</v>
@@ -4023,14 +4021,14 @@
         <v>3</v>
       </c>
       <c r="D119" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E119" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G119" s="2">
         <v>18.3</v>
@@ -4054,14 +4052,14 @@
         <v>4</v>
       </c>
       <c r="D120" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E120" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G120" s="2">
         <v>19.399999999999999</v>
@@ -4085,14 +4083,14 @@
         <v>5</v>
       </c>
       <c r="D121" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E121" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G121" s="2">
         <v>16.600000000000001</v>
@@ -4271,14 +4269,14 @@
         <v>1</v>
       </c>
       <c r="D127" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E127" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G127" s="2">
         <v>20.5</v>
@@ -4302,14 +4300,14 @@
         <v>2</v>
       </c>
       <c r="D128" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E128" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G128" s="2">
         <v>19.100000000000001</v>
@@ -4333,14 +4331,14 @@
         <v>3</v>
       </c>
       <c r="D129" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E129" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G129" s="2">
         <v>19</v>
@@ -4364,14 +4362,14 @@
         <v>4</v>
       </c>
       <c r="D130" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E130" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G130" s="2">
         <v>20.8</v>
@@ -4395,14 +4393,14 @@
         <v>5</v>
       </c>
       <c r="D131" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E131" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G131" s="2">
         <v>19.100000000000001</v>
@@ -4426,24 +4424,24 @@
         <v>1</v>
       </c>
       <c r="D132" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E132" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G132" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H132" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I132" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -4457,24 +4455,24 @@
         <v>2</v>
       </c>
       <c r="D133" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E133" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G133" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H133" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I133" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -4488,24 +4486,24 @@
         <v>3</v>
       </c>
       <c r="D134" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E134" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G134" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H134" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I134" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -4519,24 +4517,24 @@
         <v>4</v>
       </c>
       <c r="D135" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E135" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G135" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H135" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I135" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -4550,24 +4548,24 @@
         <v>5</v>
       </c>
       <c r="D136" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E136" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G136" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H136" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I136" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -4891,14 +4889,14 @@
         <v>1</v>
       </c>
       <c r="D147" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E147" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G147" s="2">
         <v>22.5</v>
@@ -4922,14 +4920,14 @@
         <v>2</v>
       </c>
       <c r="D148" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E148" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G148" s="2">
         <v>26.3</v>
@@ -4953,14 +4951,14 @@
         <v>3</v>
       </c>
       <c r="D149" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E149" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G149" s="2">
         <v>24.9</v>
@@ -4984,14 +4982,14 @@
         <v>4</v>
       </c>
       <c r="D150" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E150" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G150" s="2">
         <v>25.7</v>
@@ -5015,14 +5013,14 @@
         <v>5</v>
       </c>
       <c r="D151" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E151" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G151" s="2">
         <v>24.2</v>
@@ -5511,24 +5509,24 @@
         <v>1</v>
       </c>
       <c r="D167" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E167" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F167" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G167" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H167" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I167" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5542,24 +5540,24 @@
         <v>2</v>
       </c>
       <c r="D168" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E168" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F168" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G168" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H168" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I168" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5573,24 +5571,24 @@
         <v>3</v>
       </c>
       <c r="D169" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E169" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F169" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G169" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H169" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I169" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5604,24 +5602,24 @@
         <v>4</v>
       </c>
       <c r="D170" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E170" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F170" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G170" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H170" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I170" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5635,24 +5633,24 @@
         <v>5</v>
       </c>
       <c r="D171" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E171" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F171" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G171" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H171" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I171" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5666,24 +5664,24 @@
         <v>1</v>
       </c>
       <c r="D172" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E172" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F172" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G172" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H172" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I172" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5697,24 +5695,24 @@
         <v>2</v>
       </c>
       <c r="D173" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E173" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F173" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G173" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H173" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I173" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5728,24 +5726,24 @@
         <v>3</v>
       </c>
       <c r="D174" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E174" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F174" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G174" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H174" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I174" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5759,24 +5757,24 @@
         <v>4</v>
       </c>
       <c r="D175" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E175" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F175" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G175" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H175" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I175" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5790,24 +5788,24 @@
         <v>5</v>
       </c>
       <c r="D176" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E176" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F176" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G176" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H176" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I176" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5821,24 +5819,24 @@
         <v>1</v>
       </c>
       <c r="D177" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E177" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F177" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G177" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H177" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I177" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5852,24 +5850,24 @@
         <v>2</v>
       </c>
       <c r="D178" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E178" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F178" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G178" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H178" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I178" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5883,24 +5881,24 @@
         <v>3</v>
       </c>
       <c r="D179" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E179" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F179" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G179" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H179" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I179" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5914,24 +5912,24 @@
         <v>4</v>
       </c>
       <c r="D180" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E180" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F180" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G180" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H180" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I180" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -5945,24 +5943,24 @@
         <v>5</v>
       </c>
       <c r="D181" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E181" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F181" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G181" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H181" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I181" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -6286,14 +6284,14 @@
         <v>1</v>
       </c>
       <c r="D192" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E192" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F192" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G192" s="2">
         <v>17.100000000000001</v>
@@ -6317,14 +6315,14 @@
         <v>2</v>
       </c>
       <c r="D193" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E193" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F193" s="1">
         <f t="shared" ref="F193:F246" si="8">AVERAGE(D193:E193)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G193" s="2">
         <v>17.399999999999999</v>
@@ -6348,14 +6346,14 @@
         <v>3</v>
       </c>
       <c r="D194" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E194" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F194" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G194" s="2">
         <v>17.2</v>
@@ -6379,14 +6377,14 @@
         <v>4</v>
       </c>
       <c r="D195" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E195" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F195" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G195" s="2">
         <v>17.600000000000001</v>
@@ -6410,14 +6408,14 @@
         <v>5</v>
       </c>
       <c r="D196" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E196" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F196" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G196" s="2">
         <v>16.3</v>
@@ -8146,24 +8144,24 @@
         <v>1</v>
       </c>
       <c r="D252" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E252" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F252" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G252" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H252" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I252" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -8177,24 +8175,24 @@
         <v>2</v>
       </c>
       <c r="D253" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E253" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F253" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G253" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H253" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I253" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -8208,24 +8206,24 @@
         <v>3</v>
       </c>
       <c r="D254" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E254" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F254" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G254" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H254" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I254" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -8239,24 +8237,24 @@
         <v>4</v>
       </c>
       <c r="D255" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E255" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F255" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G255" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H255" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I255" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -8270,24 +8268,24 @@
         <v>5</v>
       </c>
       <c r="D256" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E256" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F256" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G256" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H256" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I256" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
